--- a/EmailBlast/Excel/Tycadome/Industry People/Agents.xlsx
+++ b/EmailBlast/Excel/Tycadome/Industry People/Agents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Tech\Software Programming and Coding\Robots\Ruby\EmailBlast\Excel\Tycadome\Industry People\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2C41A88-0810-4620-960D-93407F27C95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8B9EEF-A623-4BB8-A19B-A0C26C452DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
